--- a/emailSender.xlsx
+++ b/emailSender.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -95,13 +95,16 @@
       </rPr>
       <t>sarah.johnson@example.com</t>
     </r>
+  </si>
+  <si>
+    <t>akash.sharma@alcortech.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -118,6 +121,15 @@
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
       <name val="DeepSeek-CJK-patch"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -161,6 +173,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -435,6 +453,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
@@ -443,7 +472,8 @@
     <hyperlink r:id="rId4" ref="A5"/>
     <hyperlink r:id="rId5" ref="A6"/>
     <hyperlink r:id="rId6" ref="A7"/>
+    <hyperlink r:id="rId7" ref="A8"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/emailSender.xlsx
+++ b/emailSender.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -19,18 +19,10 @@
     <t>Status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="DeepSeek-CJK-patch, Inter, system-ui, -apple-system, &quot;system-ui&quot;, &quot;Segoe UI&quot;, Roboto, &quot;Noto Sans&quot;, Ubuntu, Cantarell, &quot;Helvetica Neue&quot;, Oxygen, &quot;Open Sans&quot;, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>john.doe@example.com</t>
-    </r>
-  </si>
-  <si>
-    <t>registered</t>
+    <t>manassharma1878@gmail.com</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
   <si>
     <r>
@@ -44,9 +36,6 @@
     </r>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="DeepSeek-CJK-patch, Inter, system-ui, -apple-system, &quot;system-ui&quot;, &quot;Segoe UI&quot;, Roboto, &quot;Noto Sans&quot;, Ubuntu, Cantarell, &quot;Helvetica Neue&quot;, Oxygen, &quot;Open Sans&quot;, sans-serif"/>
@@ -104,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -115,6 +104,17 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="DeepSeek-CJK-patch"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -169,14 +169,20 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -416,53 +422,53 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
